--- a/public/data/月度货量计划.xlsx
+++ b/public/data/月度货量计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="19200" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="29">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
   <si>
     <t>月份</t>
   </si>
@@ -37,24 +43,36 @@
     <t>预计运输量（万吨）</t>
   </si>
   <si>
-    <t>计划航次</t>
-  </si>
-  <si>
-    <t>公司</t>
+    <t>计划租船艘次</t>
+  </si>
+  <si>
+    <t>船型</t>
+  </si>
+  <si>
+    <t>平均航次天数</t>
+  </si>
+  <si>
+    <t>总航行天数</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
+    <t>江苏公司</t>
+  </si>
+  <si>
     <t>1月</t>
   </si>
   <si>
-    <t>江苏公司</t>
+    <t>4万吨</t>
   </si>
   <si>
     <t>2月</t>
   </si>
   <si>
+    <t>6万吨</t>
+  </si>
+  <si>
     <t>3月</t>
   </si>
   <si>
@@ -77,6 +95,9 @@
   </si>
   <si>
     <t>10月</t>
+  </si>
+  <si>
+    <t>5万吨</t>
   </si>
   <si>
     <t>11月</t>
@@ -1032,18 +1053,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,845 +1077,1577 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>112</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>280</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>131</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>224</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>97</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>109</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>159</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>267</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>201</v>
+      </c>
+      <c r="E12">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>170</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>245</v>
+      </c>
+      <c r="E15">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>179</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>199</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>184</v>
+      </c>
+      <c r="E20">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>253</v>
+      </c>
+      <c r="E22">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>140</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>144</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>176</v>
+      </c>
+      <c r="E25">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>98</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>251</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>274</v>
+      </c>
+      <c r="E28">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>101</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>273</v>
+      </c>
+      <c r="E31">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>90</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>63</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>269</v>
+      </c>
+      <c r="E36">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>227</v>
+      </c>
+      <c r="E38">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>211</v>
+      </c>
+      <c r="E39">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>279</v>
+      </c>
+      <c r="E40">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
         <v>280</v>
       </c>
-      <c r="C3">
+      <c r="E41">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>81</v>
-      </c>
-      <c r="C4">
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>224</v>
+      </c>
+      <c r="E42">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D43">
+        <v>199</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>217</v>
+      </c>
+      <c r="E44">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>62</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>226</v>
+      </c>
+      <c r="E46">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>74</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>145</v>
+      </c>
+      <c r="E51">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>148</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>90</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>298</v>
+      </c>
+      <c r="E54">
+        <v>60</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>270</v>
+      </c>
+      <c r="E55">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>240</v>
+      </c>
+      <c r="E56">
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>210</v>
+      </c>
+      <c r="E58">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>42</v>
+      </c>
+      <c r="E59">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>131</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>71</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>224</v>
-      </c>
-      <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>97</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>109</v>
-      </c>
-      <c r="C9">
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>108</v>
+      </c>
+      <c r="E61">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>159</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>267</v>
-      </c>
-      <c r="C11">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>201</v>
-      </c>
-      <c r="C12">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>170</v>
-      </c>
-      <c r="C13">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>245</v>
-      </c>
-      <c r="C15">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>58</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>68</v>
-      </c>
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>179</v>
-      </c>
-      <c r="C18">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>199</v>
-      </c>
-      <c r="C19">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>184</v>
-      </c>
-      <c r="C20">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>60</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22">
-        <v>253</v>
-      </c>
-      <c r="C22">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>140</v>
-      </c>
-      <c r="C23">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>144</v>
-      </c>
-      <c r="C24">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25">
-        <v>176</v>
-      </c>
-      <c r="C25">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>98</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>251</v>
-      </c>
-      <c r="C27">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>274</v>
-      </c>
-      <c r="C28">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>62</v>
-      </c>
-      <c r="C29">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>101</v>
-      </c>
-      <c r="C30">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>273</v>
-      </c>
-      <c r="C31">
-        <v>55</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32">
-        <v>44</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33">
-        <v>90</v>
-      </c>
-      <c r="C33">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34">
-        <v>11</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35">
-        <v>63</v>
-      </c>
-      <c r="C35">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>269</v>
-      </c>
-      <c r="C36">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37">
-        <v>200</v>
-      </c>
-      <c r="C37">
-        <v>40</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>227</v>
-      </c>
-      <c r="C38">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>211</v>
-      </c>
-      <c r="C39">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>279</v>
-      </c>
-      <c r="C40">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41">
-        <v>280</v>
-      </c>
-      <c r="C41">
-        <v>56</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>224</v>
-      </c>
-      <c r="C42">
-        <v>45</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43">
-        <v>199</v>
-      </c>
-      <c r="C43">
-        <v>40</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44">
-        <v>217</v>
-      </c>
-      <c r="C44">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45">
-        <v>62</v>
-      </c>
-      <c r="C45">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46">
-        <v>226</v>
-      </c>
-      <c r="C46">
-        <v>46</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47">
-        <v>50</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48">
-        <v>24</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49">
-        <v>74</v>
-      </c>
-      <c r="C49">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>18</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51">
-        <v>145</v>
-      </c>
-      <c r="C51">
-        <v>29</v>
-      </c>
-      <c r="D51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52">
-        <v>148</v>
-      </c>
-      <c r="C52">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53">
-        <v>90</v>
-      </c>
-      <c r="C53">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54">
-        <v>298</v>
-      </c>
-      <c r="C54">
-        <v>60</v>
-      </c>
-      <c r="D54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55">
-        <v>270</v>
-      </c>
-      <c r="C55">
-        <v>54</v>
-      </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56">
-        <v>240</v>
-      </c>
-      <c r="C56">
-        <v>48</v>
-      </c>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57">
-        <v>50</v>
-      </c>
-      <c r="C57">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58">
-        <v>210</v>
-      </c>
-      <c r="C58">
-        <v>42</v>
-      </c>
-      <c r="D58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59">
-        <v>42</v>
-      </c>
-      <c r="C59">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60">
-        <v>71</v>
-      </c>
-      <c r="C60">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61">
-        <v>108</v>
-      </c>
-      <c r="C61">
+      <c r="F61" t="s">
         <v>22</v>
       </c>
-      <c r="D61" t="s">
-        <v>21</v>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +2666,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1933,7 +2683,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
